--- a/ConsoleApp1/Sample/2-StatFile.xlsx
+++ b/ConsoleApp1/Sample/2-StatFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisasuedu.sharepoint.com/sites/ALG24.Term2/Shared Documents/General/5 Project/MATERIALS/[3] Plagiarism Validation/Sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisasuedu-my.sharepoint.com/personal/ahmed_salah_cis_asu_edu_eg/Documents/[2024]/[ALG'24.term2]/Staff/10 Project/RELEASE/[3] Plagiarism Validation/Test casesV3/Sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_1F0B129763F746CA94A9094E9301E8BE4825770F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C80E793-4285-4BE7-8015-F253281985B5}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_0AE4CCC13E52A09C74F3B57B8CBE5BA0169F0445" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D94BF0A-319D-4349-A7B3-7A43E113C9EE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Component Index</t>
   </si>
@@ -31,21 +31,31 @@
     <t>Average Similarity</t>
   </si>
   <si>
-    <t xml:space="preserve">D:/Source/1/ , D:/Source/2/ , D:/Source/3/ </t>
+    <t>Component Count</t>
   </si>
   <si>
-    <t xml:space="preserve">D:/Source/4/ , D:/Source/5/ , D:/Source/6/ </t>
+    <t>1, 2, 3</t>
   </si>
   <si>
-    <t xml:space="preserve">D:/Source/7/ , D:/Source/8/ , D:/Source/9/ , D:/Source/10/ , D:/Source/11/ </t>
+    <t>4, 5, 6</t>
+  </si>
+  <si>
+    <t>7, 8, 9, 10, 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -72,10 +82,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,61 +395,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>48.2</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
         <v>44.7</v>
       </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="D4" s="2">
         <v>5</v>
-      </c>
-      <c r="C4">
-        <v>24.9</v>
       </c>
     </row>
   </sheetData>
@@ -442,15 +471,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B9D56C6C3D48844B523255EE5F913EA" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e56c70ee8e35d13338cf11322dffd07">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1cc1538f-a989-47d6-92fb-89fcd0265031" xmlns:ns3="17eda93a-431a-4573-b14d-5d3253275257" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d841a9c5a1d2da4b318a6080b9af024" ns2:_="" ns3:_="">
     <xsd:import namespace="1cc1538f-a989-47d6-92fb-89fcd0265031"/>
@@ -679,29 +699,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DB341DB-14C0-47FB-960D-4E0B27486925}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABC6C95-DFF7-4641-925F-7426C2FCAFA7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F660911C-844B-4107-B59B-E5BBE4E7C0FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1cc1538f-a989-47d6-92fb-89fcd0265031"/>
-    <ds:schemaRef ds:uri="17eda93a-431a-4573-b14d-5d3253275257"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FFAAEC2-BBE3-4818-A8DC-2EC9E5E4006E}"/>
 </file>